--- a/Data_science_outputs/1500pop/avg_analysis/avg_analysis_3.xlsx
+++ b/Data_science_outputs/1500pop/avg_analysis/avg_analysis_3.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39328.36311375582</v>
+        <v>29064.13089906011</v>
       </c>
       <c r="C3" t="n">
         <v>23835.41416784724</v>
       </c>
       <c r="D3" t="n">
-        <v>11564.9871696252</v>
+        <v>1258.796563160196</v>
       </c>
       <c r="E3" t="n">
         <v>3948.297927844366</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13689.72982703769</v>
+        <v>12245.21117573238</v>
       </c>
       <c r="C4" t="n">
         <v>11509.41472006191</v>
       </c>
       <c r="D4" t="n">
-        <v>10691.64796788946</v>
+        <v>693.7101388976731</v>
       </c>
       <c r="E4" t="n">
         <v>1567.170081008009</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9655.640756164388</v>
+        <v>9662.851936986302</v>
       </c>
       <c r="C5" t="n">
         <v>7215.4209</v>
       </c>
       <c r="D5" t="n">
-        <v>169.2396246575338</v>
+        <v>166.8318904109584</v>
       </c>
       <c r="E5" t="n">
         <v>1386.859276712326</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24936.77196438356</v>
+        <v>19950.67174452056</v>
       </c>
       <c r="C6" t="n">
         <v>15388.70960833335</v>
       </c>
       <c r="D6" t="n">
-        <v>598.7088910958894</v>
+        <v>570.2154821917791</v>
       </c>
       <c r="E6" t="n">
         <v>2473.244604109593</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41461.06541506846</v>
+        <v>24702.6474616439</v>
       </c>
       <c r="C7" t="n">
         <v>18872.08171666673</v>
       </c>
       <c r="D7" t="n">
-        <v>11662.81525342467</v>
+        <v>1111.802752054795</v>
       </c>
       <c r="E7" t="n">
         <v>4055.421473972603</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48779.28159520552</v>
+        <v>40358.65445273992</v>
       </c>
       <c r="C8" t="n">
         <v>33950.93243333352</v>
       </c>
       <c r="D8" t="n">
-        <v>23113.47261164383</v>
+        <v>1996.000010958904</v>
       </c>
       <c r="E8" t="n">
         <v>5278.659525342466</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62071.2051616441</v>
+        <v>53836.45736438355</v>
       </c>
       <c r="C9" t="n">
         <v>49192.11786666665</v>
       </c>
       <c r="D9" t="n">
-        <v>23176.94520821918</v>
+        <v>2054.767134246576</v>
       </c>
       <c r="E9" t="n">
         <v>7408.514391780822</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>56632842.88380826</v>
+        <v>41852348.49464662</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>34322996.40170005</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6055446026930236</v>
+        <v>0.8208412111448016</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>16653581.52426027</v>
+        <v>1812667.050950684</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2940622556848837</v>
+        <v>0.0433109996487424</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>5685549.01609589</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1003931416220927</v>
+        <v>0.135847789206456</v>
       </c>
     </row>
   </sheetData>
